--- a/Surveys/2022/08_06_2022_Tracer_Survey.xlsx
+++ b/Surveys/2022/08_06_2022_Tracer_Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\RFID_tracers\surveys\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D97FA-4A06-451B-8BA5-25DC77908503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036FB41B-2422-4020-8211-F9F4536727A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{70E5BDF7-C89A-4F31-9C05-0B97409B7AAF}"/>
+    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{70E5BDF7-C89A-4F31-9C05-0B97409B7AAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="51">
   <si>
     <t>Begin</t>
   </si>
@@ -161,19 +161,10 @@
     <t>GROUP 2: UP</t>
   </si>
   <si>
-    <t>60 (under 120)</t>
-  </si>
-  <si>
     <t>GROUP 3: UP</t>
   </si>
   <si>
     <t>GROUP 4: UP</t>
-  </si>
-  <si>
-    <t>39*</t>
-  </si>
-  <si>
-    <t>31*</t>
   </si>
   <si>
     <t>Coordinates</t>
@@ -222,12 +213,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,9 +423,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -437,6 +432,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,10 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -794,27 +792,27 @@
       <selection activeCell="W29" sqref="W29:AD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44779</v>
       </c>
@@ -825,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -881,7 +879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -937,7 +935,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -993,7 +991,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>36</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1200,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1255,7 +1253,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>65</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>7</v>
       </c>
@@ -1307,7 +1305,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>16</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>44</v>
       </c>
@@ -1359,7 +1357,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>44</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>127</v>
       </c>
@@ -1411,7 +1409,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>33</v>
       </c>
@@ -1437,7 +1435,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>63</v>
       </c>
@@ -1463,7 +1461,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>104</v>
       </c>
@@ -1489,7 +1487,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>13</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>26</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>55</v>
       </c>
@@ -1567,7 +1565,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>18</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:30" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>62</v>
       </c>
@@ -1729,7 +1727,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:30" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>19</v>
       </c>
@@ -1806,7 +1804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>60</v>
       </c>
@@ -1880,7 +1878,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>90</v>
       </c>
@@ -1954,7 +1952,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>49</v>
       </c>
@@ -2028,7 +2026,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>48</v>
       </c>
@@ -2102,7 +2100,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>130</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>39</v>
       </c>
@@ -2250,7 +2248,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>6</v>
       </c>
@@ -2324,7 +2322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>106</v>
       </c>
@@ -2398,7 +2396,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>81</v>
       </c>
@@ -2472,7 +2470,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>19</v>
       </c>
@@ -2522,7 +2520,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>123</v>
       </c>
@@ -2548,7 +2546,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>114</v>
       </c>
@@ -2574,7 +2572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>128</v>
       </c>
@@ -2610,33 +2608,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C285C5-6F89-4819-AAA1-AF8147931457}">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O113" sqref="O113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44779</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2644,7 +2642,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2652,7 +2650,7 @@
         <v>0.68541666666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -2660,54 +2658,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
@@ -2720,41 +2718,41 @@
       <c r="D13" s="5">
         <v>6</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="F13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>3</v>
       </c>
@@ -2769,17 +2767,17 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>113</v>
       </c>
@@ -2794,17 +2792,17 @@
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>42</v>
       </c>
@@ -2819,17 +2817,17 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>4</v>
       </c>
@@ -2844,17 +2842,17 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>105</v>
       </c>
@@ -2869,17 +2867,17 @@
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>25</v>
       </c>
@@ -2894,17 +2892,17 @@
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>30</v>
       </c>
@@ -2919,17 +2917,17 @@
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>99</v>
       </c>
@@ -2944,17 +2942,17 @@
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>33</v>
       </c>
@@ -2969,17 +2967,17 @@
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>117</v>
       </c>
@@ -2994,17 +2992,17 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>26</v>
       </c>
@@ -3019,17 +3017,17 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>54</v>
       </c>
@@ -3044,17 +3042,17 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>55</v>
       </c>
@@ -3069,17 +3067,17 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>71</v>
       </c>
@@ -3094,17 +3092,17 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>51</v>
       </c>
@@ -3119,17 +3117,17 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>80</v>
       </c>
@@ -3144,17 +3142,17 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>63</v>
       </c>
@@ -3169,17 +3167,17 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>87</v>
       </c>
@@ -3194,19 +3192,19 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="14">
-        <v>50</v>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>1050</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>32</v>
@@ -3219,19 +3217,19 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="14">
-        <v>26</v>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>1026</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>32</v>
@@ -3244,19 +3242,19 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="14">
-        <v>55</v>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>1055</v>
       </c>
       <c r="B34" s="8">
         <v>123</v>
@@ -3269,19 +3267,19 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="14">
-        <v>37</v>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>1037</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>32</v>
@@ -3294,44 +3292,44 @@
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>29</v>
       </c>
@@ -3344,41 +3342,41 @@
       <c r="D38" s="5">
         <v>6</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="21" t="s">
+      <c r="K38" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M38" s="21" t="s">
+      <c r="M38" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N38" s="21" t="s">
+      <c r="N38" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O38" s="21" t="s">
+      <c r="O38" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>7</v>
       </c>
@@ -3393,17 +3391,17 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>44</v>
       </c>
@@ -3418,17 +3416,17 @@
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>13</v>
       </c>
@@ -3443,17 +3441,17 @@
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>16</v>
       </c>
@@ -3468,17 +3466,17 @@
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>112</v>
       </c>
@@ -3493,17 +3491,17 @@
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>32</v>
       </c>
@@ -3518,17 +3516,17 @@
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>59</v>
       </c>
@@ -3543,17 +3541,17 @@
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>57</v>
       </c>
@@ -3568,17 +3566,17 @@
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>104</v>
       </c>
@@ -3593,17 +3591,17 @@
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>127</v>
       </c>
@@ -3618,17 +3616,17 @@
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>134</v>
       </c>
@@ -3643,17 +3641,17 @@
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>79</v>
       </c>
@@ -3668,19 +3666,19 @@
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="16">
-        <v>17</v>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>1017</v>
       </c>
       <c r="B51" s="8">
         <v>146</v>
@@ -3693,19 +3691,19 @@
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="16">
-        <v>36</v>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>1036</v>
       </c>
       <c r="B52" s="8">
         <v>121</v>
@@ -3718,19 +3716,19 @@
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="16">
-        <v>44</v>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>1044</v>
       </c>
       <c r="B53" s="8">
         <v>160</v>
@@ -3743,19 +3741,19 @@
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>65</v>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>1065</v>
       </c>
       <c r="B54" s="8">
         <v>150</v>
@@ -3768,44 +3766,44 @@
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>29</v>
       </c>
@@ -3818,41 +3816,41 @@
       <c r="D57" s="5">
         <v>16</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="21" t="s">
+      <c r="K57" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L57" s="21" t="s">
+      <c r="L57" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="M57" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N57" s="21" t="s">
+      <c r="N57" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O57" s="21" t="s">
+      <c r="O57" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>22</v>
       </c>
@@ -3867,17 +3865,17 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>114</v>
       </c>
@@ -3892,17 +3890,17 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>90</v>
       </c>
@@ -3917,17 +3915,17 @@
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>19</v>
       </c>
@@ -3942,17 +3940,17 @@
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>106</v>
       </c>
@@ -3967,17 +3965,17 @@
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>49</v>
       </c>
@@ -3992,17 +3990,17 @@
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>128</v>
       </c>
@@ -4017,17 +4015,17 @@
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>47</v>
       </c>
@@ -4036,17 +4034,17 @@
       <c r="D65" s="8"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>39</v>
       </c>
@@ -4061,17 +4059,17 @@
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>120</v>
       </c>
@@ -4086,19 +4084,19 @@
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>41</v>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>60</v>
       </c>
       <c r="B68" s="8">
         <v>121</v>
@@ -4111,17 +4109,17 @@
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="14">
         <v>130</v>
       </c>
@@ -4136,17 +4134,17 @@
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="14">
         <v>123</v>
       </c>
@@ -4161,17 +4159,17 @@
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="14">
         <v>124</v>
       </c>
@@ -4180,17 +4178,17 @@
       <c r="D71" s="8"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="14">
         <v>81</v>
       </c>
@@ -4205,19 +4203,19 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="14">
-        <v>6</v>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="32">
+        <v>1006</v>
       </c>
       <c r="B73" s="8">
         <v>108</v>
@@ -4230,38 +4228,38 @@
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>11</v>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="32">
+        <v>1011</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="14">
-        <v>48</v>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="32">
+        <v>1048</v>
       </c>
       <c r="B75" s="8">
         <v>75</v>
@@ -4274,19 +4272,19 @@
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="14">
-        <v>62</v>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="32">
+        <v>1062</v>
       </c>
       <c r="B76" s="8">
         <v>166</v>
@@ -4299,44 +4297,44 @@
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B78" s="25" t="s">
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C78" s="27"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>29</v>
       </c>
@@ -4349,41 +4347,41 @@
       <c r="D79" s="5">
         <v>22</v>
       </c>
-      <c r="E79" s="32" t="s">
+      <c r="E79" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="32" t="s">
+      <c r="F79" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G79" s="21" t="s">
+      <c r="G79" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J79" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H79" s="21" t="s">
+      <c r="K79" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I79" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J79" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L79" s="21" t="s">
+      <c r="L79" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M79" s="21" t="s">
+      <c r="M79" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N79" s="21" t="s">
+      <c r="N79" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O79" s="21" t="s">
+      <c r="O79" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>8</v>
       </c>
@@ -4398,17 +4396,17 @@
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>2</v>
       </c>
@@ -4423,17 +4421,17 @@
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>43</v>
       </c>
@@ -4448,17 +4446,17 @@
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <v>15</v>
       </c>
@@ -4473,17 +4471,17 @@
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <v>94</v>
       </c>
@@ -4498,17 +4496,17 @@
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>95</v>
       </c>
@@ -4523,17 +4521,17 @@
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>109</v>
       </c>
@@ -4548,17 +4546,17 @@
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>66</v>
       </c>
@@ -4573,17 +4571,17 @@
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>73</v>
       </c>
@@ -4598,17 +4596,17 @@
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="6"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="14">
         <v>129</v>
       </c>
@@ -4623,17 +4621,17 @@
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>70</v>
       </c>
@@ -4648,17 +4646,17 @@
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>58</v>
       </c>
@@ -4673,17 +4671,17 @@
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>136</v>
       </c>
@@ -4698,19 +4696,19 @@
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="14" t="s">
-        <v>44</v>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="32">
+        <v>1039</v>
       </c>
       <c r="B93" s="8">
         <v>132</v>
@@ -4723,19 +4721,19 @@
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="14">
-        <v>5</v>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="32">
+        <v>1005</v>
       </c>
       <c r="B94" s="8" t="s">
         <v>32</v>
@@ -4748,19 +4746,19 @@
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
-        <v>45</v>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="32">
+        <v>1031</v>
       </c>
       <c r="B95" s="8">
         <v>132</v>
@@ -4773,19 +4771,19 @@
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="14">
-        <v>10</v>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="32">
+        <v>1010</v>
       </c>
       <c r="B96" s="8" t="s">
         <v>32</v>
@@ -4798,44 +4796,44 @@
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="20" t="s">
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="30"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B98" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-      <c r="K98" s="31"/>
-      <c r="L98" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="M98" s="31"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F98" s="22"/>
+      <c r="G98" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="22"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>29</v>
       </c>
@@ -4848,41 +4846,41 @@
       <c r="D99" s="5">
         <v>28</v>
       </c>
-      <c r="E99" s="32" t="s">
+      <c r="E99" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F99" s="32" t="s">
+      <c r="F99" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G99" s="21" t="s">
+      <c r="G99" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J99" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H99" s="21" t="s">
+      <c r="K99" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I99" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J99" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K99" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L99" s="21" t="s">
+      <c r="L99" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M99" s="21" t="s">
+      <c r="M99" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="N99" s="21" t="s">
+      <c r="N99" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O99" s="21" t="s">
+      <c r="O99" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>1</v>
       </c>
@@ -4897,17 +4895,17 @@
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>41</v>
       </c>
@@ -4922,17 +4920,17 @@
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <v>17</v>
       </c>
@@ -4947,17 +4945,17 @@
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <v>29</v>
       </c>
@@ -4972,17 +4970,17 @@
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="11">
         <v>14</v>
       </c>
@@ -4997,17 +4995,17 @@
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>119</v>
       </c>
@@ -5022,17 +5020,17 @@
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>45</v>
       </c>
@@ -5047,17 +5045,17 @@
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>20</v>
       </c>
@@ -5072,17 +5070,17 @@
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>34</v>
       </c>
@@ -5097,17 +5095,17 @@
       </c>
       <c r="E108" s="13"/>
       <c r="F108" s="6"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="14">
         <v>64</v>
       </c>
@@ -5122,17 +5120,17 @@
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="14">
         <v>56</v>
       </c>
@@ -5147,17 +5145,17 @@
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16"/>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="14">
         <v>78</v>
       </c>
@@ -5172,19 +5170,19 @@
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="16">
-        <v>2</v>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16"/>
+      <c r="N111" s="16"/>
+      <c r="O111" s="16"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="32">
+        <v>1002</v>
       </c>
       <c r="B112" s="8" t="s">
         <v>32</v>
@@ -5197,19 +5195,19 @@
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
-        <v>14</v>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16"/>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="32">
+        <v>1014</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>32</v>
@@ -5222,19 +5220,19 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
-        <v>43</v>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16"/>
+      <c r="N113" s="16"/>
+      <c r="O113" s="16"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="32">
+        <v>1043</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>32</v>
@@ -5247,19 +5245,19 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A115" s="16">
-        <v>58</v>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16"/>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="32">
+        <v>1058</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>32</v>
@@ -5272,18 +5270,29 @@
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16"/>
+      <c r="N115" s="16"/>
+      <c r="O115" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:O37"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="G98:K98"/>
     <mergeCell ref="L98:O98"/>
@@ -5293,17 +5302,6 @@
     <mergeCell ref="E78:F78"/>
     <mergeCell ref="G78:K78"/>
     <mergeCell ref="L78:O78"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B98:D98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
